--- a/excel-sheets/price-sensitivity-arm-study-data.xlsx
+++ b/excel-sheets/price-sensitivity-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +435,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="3">
@@ -448,10 +445,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.5769230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -461,10 +455,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+        <v>-0.5230769230769231</v>
       </c>
     </row>
     <row r="5">
@@ -474,10 +465,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.5692307692307692</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +475,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+        <v>-0.3846153846153846</v>
       </c>
     </row>
     <row r="7">
@@ -500,10 +485,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
+        <v>-0.4769230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -513,10 +495,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="9">
@@ -526,10 +505,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+        <v>-0.676923076923077</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +515,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.4923076923076923</v>
       </c>
     </row>
     <row r="11">
@@ -552,10 +525,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+        <v>-0.6307692307692307</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/price-sensitivity-arm-study-data.xlsx
+++ b/excel-sheets/price-sensitivity-arm-study-data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,35 @@
           <t>Q53</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>500</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3500</v>
+      </c>
       <c r="F2" t="n">
-        <v>6500</v>
+        <v>1200</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>150</v>
+      </c>
+      <c r="J2" t="n">
+        <v>700</v>
+      </c>
+      <c r="K2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -444,8 +471,35 @@
           <t>1_PS1</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.2857142857142857</v>
+      </c>
       <c r="F3" t="n">
-        <v>-0.5769230769230769</v>
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.2857142857142857</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -454,8 +508,35 @@
           <t>2_PS1</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3142857142857143</v>
+      </c>
       <c r="F4" t="n">
-        <v>-0.5230769230769231</v>
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -464,8 +545,35 @@
           <t>3_PS1</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2571428571428571</v>
+      </c>
       <c r="F5" t="n">
-        <v>-0.5692307692307692</v>
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.07142857142857142</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -474,8 +582,35 @@
           <t>4_PS1</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.4857142857142857</v>
+      </c>
       <c r="F6" t="n">
-        <v>-0.3846153846153846</v>
+        <v>0.0825</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.07142857142857142</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -484,8 +619,35 @@
           <t>5_PS1</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.3428571428571429</v>
+      </c>
       <c r="F7" t="n">
-        <v>-0.4769230769230769</v>
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.07142857142857142</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -494,8 +656,35 @@
           <t>6_PS1</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.3714285714285714</v>
+      </c>
       <c r="F8" t="n">
-        <v>-0.4</v>
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -504,8 +693,35 @@
           <t>7_PS1</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.4285714285714285</v>
+      </c>
       <c r="F9" t="n">
-        <v>-0.676923076923077</v>
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -514,8 +730,35 @@
           <t>8_PS1</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.2</v>
+      </c>
       <c r="F10" t="n">
-        <v>-0.4923076923076923</v>
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -524,8 +767,35 @@
           <t>9_PS1</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>-0.1666666666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.3142857142857143</v>
+      </c>
       <c r="F11" t="n">
-        <v>-0.6307692307692307</v>
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.1428571428571428</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
